--- a/data/trans_orig/P14B11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B11-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B1CB533-3CA3-4CF9-AD10-7A1C6CFFD77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B987ECEF-85A5-4268-9E77-22D3D02D8477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3858A168-E385-4D95-B780-7B5B9D512BAD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4FCC414-F3D1-413F-80F8-6519B27CA427}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="238">
   <si>
     <t>Población cuyo infarto de miocardio le limita en 2012 (Tasa respuesta: 1,49%)</t>
   </si>
@@ -144,55 +144,55 @@
     <t>60,3%</t>
   </si>
   <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>53,86%</t>
   </si>
   <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>58,03%</t>
   </si>
   <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>39,7%</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
   </si>
   <si>
     <t>46,14%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
   </si>
   <si>
     <t>41,97%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -201,7 +201,7 @@
     <t>75,37%</t>
   </si>
   <si>
-    <t>37,24%</t>
+    <t>37,4%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -210,13 +210,13 @@
     <t>81,58%</t>
   </si>
   <si>
-    <t>53,33%</t>
+    <t>52,84%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>62,76%</t>
+    <t>62,6%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -225,7 +225,7 @@
     <t>18,42%</t>
   </si>
   <si>
-    <t>46,67%</t>
+    <t>47,16%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -324,7 +324,7 @@
     <t>77,35%</t>
   </si>
   <si>
-    <t>35,97%</t>
+    <t>36,45%</t>
   </si>
   <si>
     <t>76,28%</t>
@@ -336,16 +336,16 @@
     <t>76,85%</t>
   </si>
   <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>64,03%</t>
+    <t>63,55%</t>
   </si>
   <si>
     <t>23,72%</t>
@@ -357,64 +357,64 @@
     <t>23,15%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
   </si>
   <si>
     <t>69,77%</t>
   </si>
   <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>73,51%</t>
   </si>
   <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -483,10 +483,10 @@
     <t>71,2%</t>
   </si>
   <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>38,95%</t>
@@ -507,10 +507,10 @@
     <t>28,8%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
   </si>
   <si>
     <t>84,15%</t>
@@ -522,7 +522,7 @@
     <t>86,6%</t>
   </si>
   <si>
-    <t>41,36%</t>
+    <t>42,0%</t>
   </si>
   <si>
     <t>15,85%</t>
@@ -534,7 +534,7 @@
     <t>13,4%</t>
   </si>
   <si>
-    <t>58,64%</t>
+    <t>58,0%</t>
   </si>
   <si>
     <t>72,19%</t>
@@ -567,19 +567,19 @@
     <t>24,65%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>60,38%</t>
   </si>
   <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>21,85%</t>
@@ -588,19 +588,19 @@
     <t>75,35%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>39,62%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -624,10 +624,10 @@
     <t>67,67%</t>
   </si>
   <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -636,19 +636,19 @@
     <t>78,09%</t>
   </si>
   <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -657,106 +657,100 @@
     <t>21,91%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
   </si>
   <si>
     <t>69,25%</t>
   </si>
   <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
   </si>
   <si>
     <t>88,7%</t>
   </si>
   <si>
-    <t>48,83%</t>
+    <t>49,58%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
   </si>
   <si>
     <t>11,3%</t>
   </si>
   <si>
-    <t>51,17%</t>
+    <t>50,42%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>68,86%</t>
   </si>
   <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>75,29%</t>
   </si>
   <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>65,78%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
   </si>
   <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
+    <t>34,22%</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E42922-3B2E-430B-AFB1-9F418FC19F0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB61F29-301F-419E-A817-39FFDDC0F5B6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2681,7 +2675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639DD02A-600E-4D8C-A9D9-F35146937784}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A021F684-A343-4180-A604-546556AC6861}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4081,7 +4075,7 @@
         <v>230</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4090,13 @@
         <v>20792</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -4114,10 +4108,10 @@
         <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -4126,13 +4120,13 @@
         <v>27514</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B11-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B987ECEF-85A5-4268-9E77-22D3D02D8477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E7779AD-7BD2-4C33-B267-909FDB13FC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4FCC414-F3D1-413F-80F8-6519B27CA427}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DAF589D8-FE12-440B-B666-DDBD629DE820}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="242">
   <si>
     <t>Población cuyo infarto de miocardio le limita en 2012 (Tasa respuesta: 1,49%)</t>
   </si>
@@ -144,55 +144,55 @@
     <t>60,3%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>53,86%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
   </si>
   <si>
     <t>58,03%</t>
   </si>
   <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>39,7%</t>
   </si>
   <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
   </si>
   <si>
     <t>46,14%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
   <si>
     <t>41,97%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -201,7 +201,7 @@
     <t>75,37%</t>
   </si>
   <si>
-    <t>37,4%</t>
+    <t>37,04%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -210,13 +210,13 @@
     <t>81,58%</t>
   </si>
   <si>
-    <t>52,84%</t>
+    <t>52,73%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>62,6%</t>
+    <t>62,96%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -225,7 +225,7 @@
     <t>18,42%</t>
   </si>
   <si>
-    <t>47,16%</t>
+    <t>47,27%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -234,523 +234,535 @@
     <t>49,09%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>56,65%</t>
   </si>
   <si>
-    <t>26,78%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo infarto de miocardio le limita en 2016 (Tasa respuesta: 1,61%)</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
   </si>
   <si>
     <t>85,95%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo infarto de miocardio le limita en 2015 (Tasa respuesta: 1,61%)</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
     <t>61,05%</t>
   </si>
   <si>
-    <t>27,93%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
   </si>
   <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>34,22%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB61F29-301F-419E-A817-39FFDDC0F5B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D488C37E-FE4F-48C9-A055-31D8B4518BF5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2675,7 +2687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A021F684-A343-4180-A604-546556AC6861}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94DDB23-C44C-48EB-9C25-081F61A15FEC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4054,13 +4066,13 @@
         <v>37829</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M28" s="7">
         <v>80</v>
@@ -4069,13 +4081,13 @@
         <v>83811</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4102,13 @@
         <v>20792</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -4105,13 +4117,13 @@
         <v>6722</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -4120,13 +4132,13 @@
         <v>27514</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
